--- a/Proyecto Redes 2/AnalisisSistemaRed.xlsx
+++ b/Proyecto Redes 2/AnalisisSistemaRed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/916453d256f63eb8/Documentos/GitHub/CursosRedes/Proyecto Redes 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="508" documentId="11_AD4D2F04E46CFB4ACB3E20CB0D92F634683EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD95E01C-3129-4F86-8C7F-807A66257C6D}"/>
+  <xr:revisionPtr revIDLastSave="731" documentId="11_AD4D2F04E46CFB4ACB3E20CB0D92F634683EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44D5843C-752D-4BCB-B645-03C28C7ADDC1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="113">
   <si>
     <t>Departamentos</t>
   </si>
@@ -56,15 +56,6 @@
     <t>Gerencia</t>
   </si>
   <si>
-    <t>Total de trabajadores</t>
-  </si>
-  <si>
-    <t>%Extra Maquinas</t>
-  </si>
-  <si>
-    <t>%Extra Crecimiento</t>
-  </si>
-  <si>
     <t>Total Final</t>
   </si>
   <si>
@@ -74,30 +65,9 @@
     <t xml:space="preserve">Finanzas </t>
   </si>
   <si>
-    <t>Total de dispositivos / hosts necesarios para el sistema de red, conciderando escalabilidad.</t>
-  </si>
-  <si>
     <t>Routers C.Dist</t>
   </si>
   <si>
-    <t>Switches C.Acceso</t>
-  </si>
-  <si>
-    <t>3x(48 puertos)</t>
-  </si>
-  <si>
-    <t>3x(48  puertos)</t>
-  </si>
-  <si>
-    <t>1x(48  puertos)</t>
-  </si>
-  <si>
-    <t>2x(48 puertos)</t>
-  </si>
-  <si>
-    <t>1x(48 puertos)</t>
-  </si>
-  <si>
     <t>Totales</t>
   </si>
   <si>
@@ -242,9 +212,6 @@
     <t>Servicios Profesionales</t>
   </si>
   <si>
-    <t>Multiplicador(x1.8)</t>
-  </si>
-  <si>
     <t>Fase</t>
   </si>
   <si>
@@ -372,6 +339,45 @@
   </si>
   <si>
     <t>Coordinador + cliente</t>
+  </si>
+  <si>
+    <t>Total de dispositivos:</t>
+  </si>
+  <si>
+    <t>Total de trabajadores (Conexion alámbrica Obligatoria)</t>
+  </si>
+  <si>
+    <t>%Extra Máquinas (Impresoras, camaras, etc)</t>
+  </si>
+  <si>
+    <t>Dispositivos con conexión Alámbrica</t>
+  </si>
+  <si>
+    <t>B, C</t>
+  </si>
+  <si>
+    <t>A, C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D, E</t>
+  </si>
+  <si>
+    <t>Cantidad switches (48 puertos)</t>
+  </si>
+  <si>
+    <t># Switch por departamento</t>
+  </si>
+  <si>
+    <t>Total final de switches a utilizar</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Dispositivos con conexión Inalámbrica (cel, laptop, tablet, smart watch)</t>
   </si>
 </sst>
 </file>
@@ -508,23 +514,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -552,8 +549,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -567,36 +577,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -883,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:H20"/>
+  <dimension ref="C1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,314 +902,369 @@
     <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" customWidth="1"/>
     <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E2">
-        <v>1.8</v>
-      </c>
-      <c r="F2" s="1">
+    <row r="1" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12">
+        <v>50</v>
+      </c>
+      <c r="E4" s="12">
+        <f>ROUND(D4*$E$1%,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F4" s="12">
+        <f>D4+E4</f>
+        <v>53</v>
+      </c>
+      <c r="G4" s="12">
+        <f>ROUND(1.3*D4,0)</f>
+        <v>65</v>
+      </c>
+      <c r="H4" s="12">
+        <f>G4+F4</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12">
+        <v>60</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:E9" si="0">ROUND(D5*$E$1%,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="12">
+        <f>D5+E5</f>
+        <v>63</v>
+      </c>
+      <c r="G5" s="12">
+        <f>ROUND(2.2*D5,0)</f>
+        <v>132</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" ref="H5:H9" si="1">G5+F5</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>15</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" ref="F5:G9" si="2">D6+E6</f>
+        <v>16</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" ref="G5:G9" si="3">ROUND(2.2*D6,0)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12">
         <v>30</v>
       </c>
-      <c r="G2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12">
         <v>10</v>
       </c>
-      <c r="D4" s="4">
-        <v>50</v>
-      </c>
-      <c r="E4" s="4">
-        <f>ROUND(D4*$E$2,0)</f>
-        <v>90</v>
-      </c>
-      <c r="F4" s="4">
-        <f>ROUND(E4*$F$2%,0)</f>
-        <v>27</v>
-      </c>
-      <c r="G4" s="4">
-        <f>ROUND(E4*$G$2%,0)</f>
-        <v>18</v>
-      </c>
-      <c r="H4" s="4">
-        <f>SUM(E4:G4)</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4">
-        <v>60</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" ref="E5:E9" si="0">ROUND(D5*$E$2,0)</f>
-        <v>108</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" ref="F5:F9" si="1">ROUND(E5*$F$2%,0)</f>
-        <v>32</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" ref="G5:G9" si="2">ROUND(E5*$G$2%,0)</f>
-        <v>22</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" ref="H5:H9" si="3">SUM(E5:G5)</f>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="4" t="s">
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D6" s="4">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F9" s="12">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="H8" s="4">
+      <c r="G9" s="12">
         <f t="shared" si="3"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="29">
+        <f>SUM(D4:D9)</f>
+        <v>185</v>
+      </c>
+      <c r="E10" s="29">
+        <f>SUM(E4:E9)</f>
+        <v>11</v>
+      </c>
+      <c r="F10" s="29">
+        <f>SUM(F4:F9)</f>
+        <v>196</v>
+      </c>
+      <c r="G10" s="29">
+        <f>SUM(G4:G9)</f>
+        <v>362</v>
+      </c>
+      <c r="H10" s="29">
+        <f>SUM(H4:H9)</f>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="12">
+        <v>63</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="30">
+        <f>D13/48</f>
+        <v>1.3125</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12">
+        <v>53</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="30">
+        <f t="shared" ref="F14:F18" si="4">D14/48</f>
+        <v>1.1041666666666667</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12">
+        <v>32</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="30">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12">
+        <v>21</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="30">
+        <f t="shared" si="4"/>
+        <v>0.4375</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <v>16</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="30">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="4">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="2"/>
+      <c r="D18" s="12">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="30">
+        <f t="shared" si="4"/>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="12">
+        <v>196</v>
+      </c>
+      <c r="E19" s="12">
+        <v>6</v>
+      </c>
+      <c r="F19" s="30">
+        <f>ROUND(SUM(F13:F18),0)</f>
         <v>4</v>
       </c>
-      <c r="H9" s="4">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="5">
-        <f>SUM(H4:H9)</f>
-        <v>499</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4">
-        <v>135</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4">
-        <v>162</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>40</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4">
-        <v>54</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="4">
-        <v>81</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4">
-        <v>27</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2">
-        <f>SUM(D14:D19)</f>
-        <v>499</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27">
         <v>6</v>
       </c>
-      <c r="F20" s="2">
-        <v>11</v>
-      </c>
+      <c r="G20" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C10:G10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C13:F18">
+    <sortCondition descending="1" ref="D13:D18"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1212,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EF6F0D-2255-4E4A-984B-81F981B54FDE}">
   <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1227,117 +1289,117 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="3" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>1066</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <f>E4*D4</f>
         <v>2132</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>38</v>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4">
         <v>6</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>1066</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <f>E5*D5</f>
         <v>6396</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="7">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5">
         <v>1942</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <f>E6*D6</f>
-        <v>23304</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>38</v>
+        <v>11652</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="J6">
         <v>500</v>
@@ -1356,321 +1418,321 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>811</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <f t="shared" ref="F7:F9" si="0">E7*D7</f>
         <v>4866</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>38</v>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>6769</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>6769</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>40</v>
+      <c r="G8" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>2259.9899999999998</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>4519.9799999999996</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>42</v>
+      <c r="G9" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="B10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4">
         <v>30000</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>0.5</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <f>E11*D11</f>
         <v>15000</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>51</v>
+      <c r="G11" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <v>423.67</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
         <f>E12*D12</f>
         <v>423.67</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>63</v>
+      <c r="G12" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="6">
         <v>300</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="9">
         <v>6.28</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="9">
         <f>E13*D13</f>
         <v>1884</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>64</v>
+      <c r="G13" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="4">
         <v>12</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="5">
         <v>73.900000000000006</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="9">
         <f>E14*D14</f>
         <v>886.80000000000007</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>63</v>
+      <c r="G14" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="4">
         <v>2000</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <v>3.02</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="9">
         <f>E15*D15</f>
         <v>6040</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
+      <c r="G15" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="B16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="7">
+      <c r="B17" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <v>7500</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="9">
         <f>E17*D17</f>
         <v>7500</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>65</v>
+      <c r="G17" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="7">
+      <c r="B18" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="5">
         <v>1500</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="9">
         <f>E18*D18</f>
         <v>1500</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>65</v>
+      <c r="G18" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="13">
+      <c r="B19" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="10">
         <f>SUM(F4:F9,F11:F15,F17:F18)</f>
-        <v>81221.45</v>
-      </c>
-      <c r="G19" s="11">
+        <v>69569.45</v>
+      </c>
+      <c r="G19" s="8">
         <f>F19*500</f>
-        <v>40610725</v>
+        <v>34784725</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>43</v>
+      <c r="B22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="D25" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
+    <row r="26" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="D27" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1704,232 +1766,232 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="12">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="25"/>
+      <c r="C5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="12">
+        <v>4</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="25"/>
+      <c r="C6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="26"/>
+      <c r="C8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="12">
+        <v>5</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="26"/>
+      <c r="C10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="12">
+        <v>8</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="26"/>
+      <c r="C11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="12">
+        <v>3</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D12" s="12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="26"/>
+      <c r="C13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="26" t="s">
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="26"/>
+      <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="D14" s="12">
+        <v>3</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="20">
-        <v>3</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="26"/>
+      <c r="C16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="21"/>
-      <c r="C5" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="20">
-        <v>4</v>
-      </c>
-      <c r="E5" s="22" t="s">
+    <row r="17" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="26"/>
+      <c r="C17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="21"/>
-      <c r="C6" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="20">
+    <row r="18" spans="2:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="12">
         <v>2</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E18" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="20">
+    <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="26"/>
+      <c r="C19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="12">
         <v>2</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E19" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="20">
-        <v>5</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-      <c r="C10" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="20">
-        <v>8</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="20">
-        <v>3</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="20">
-        <v>3</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
-      <c r="C13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="20">
-        <v>2</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
-      <c r="C14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="20">
-        <v>3</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="20">
-        <v>2</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
-      <c r="C16" s="20" t="s">
+    <row r="20" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="20">
-        <v>2</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
-      <c r="C17" s="20" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="20">
-        <v>1</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="20">
-        <v>2</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="23"/>
-      <c r="C19" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="20">
-        <v>2</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1951,7 +2013,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Proyecto Redes 2/AnalisisSistemaRed.xlsx
+++ b/Proyecto Redes 2/AnalisisSistemaRed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/916453d256f63eb8/Documentos/GitHub/CursosRedes/Proyecto Redes 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="731" documentId="11_AD4D2F04E46CFB4ACB3E20CB0D92F634683EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44D5843C-752D-4BCB-B645-03C28C7ADDC1}"/>
+  <xr:revisionPtr revIDLastSave="1112" documentId="11_AD4D2F04E46CFB4ACB3E20CB0D92F634683EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8268B346-BE39-43E4-BE5B-7E05690A2A3D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="252">
   <si>
     <t>Departamentos</t>
   </si>
@@ -378,6 +378,423 @@
   </si>
   <si>
     <t>Dispositivos con conexión Inalámbrica (cel, laptop, tablet, smart watch)</t>
+  </si>
+  <si>
+    <t>192.168.0.0/22</t>
+  </si>
+  <si>
+    <t>Max. 1022 hosts</t>
+  </si>
+  <si>
+    <t>Red principal:</t>
+  </si>
+  <si>
+    <t>Dept.</t>
+  </si>
+  <si>
+    <t>Máscara de Subred/bits</t>
+  </si>
+  <si>
+    <t>Wilcard</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Primera / Gateway</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
+  </si>
+  <si>
+    <t>0.0.0.127</t>
+  </si>
+  <si>
+    <t>0.0.0.63</t>
+  </si>
+  <si>
+    <t>192.168.0.0</t>
+  </si>
+  <si>
+    <t>192.168.0.1</t>
+  </si>
+  <si>
+    <t>192.168.0.255</t>
+  </si>
+  <si>
+    <t>192.168.0.254</t>
+  </si>
+  <si>
+    <t>192.168.1.0</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>Última</t>
+  </si>
+  <si>
+    <t>195 (254)/24</t>
+  </si>
+  <si>
+    <t>118 (126)/25</t>
+  </si>
+  <si>
+    <t>98 (126)/25</t>
+  </si>
+  <si>
+    <t>65 (126)/25</t>
+  </si>
+  <si>
+    <t>49 (62)/26</t>
+  </si>
+  <si>
+    <t>33 (62)/26</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>0.0.0.255</t>
+  </si>
+  <si>
+    <t>192.168.3.0</t>
+  </si>
+  <si>
+    <t>192.168.1.127</t>
+  </si>
+  <si>
+    <t>192.168.1.126</t>
+  </si>
+  <si>
+    <t>192.168.1.128</t>
+  </si>
+  <si>
+    <t>192.168.1.255</t>
+  </si>
+  <si>
+    <t>192.168.1.254</t>
+  </si>
+  <si>
+    <t>192.168.1.129</t>
+  </si>
+  <si>
+    <t>192.168.2.0</t>
+  </si>
+  <si>
+    <t>192.168.2.127</t>
+  </si>
+  <si>
+    <t>192.168.2.126</t>
+  </si>
+  <si>
+    <t>192.168.2.1</t>
+  </si>
+  <si>
+    <t>192.168.2.128</t>
+  </si>
+  <si>
+    <t>192.168.2.191</t>
+  </si>
+  <si>
+    <t>192.168.2.190</t>
+  </si>
+  <si>
+    <t>192.168.2.129</t>
+  </si>
+  <si>
+    <t>192.168.2.192</t>
+  </si>
+  <si>
+    <t>192.168.2.255</t>
+  </si>
+  <si>
+    <t>192.168.2.254</t>
+  </si>
+  <si>
+    <t>192.168.2.193</t>
+  </si>
+  <si>
+    <t>Routers CORE</t>
+  </si>
+  <si>
+    <t>2 (2)/30</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>0.0.0.3</t>
+  </si>
+  <si>
+    <t>192.168.3.3</t>
+  </si>
+  <si>
+    <t>192.168.3.1</t>
+  </si>
+  <si>
+    <t>192.168.3.2</t>
+  </si>
+  <si>
+    <t>Routers  SC-CORE1</t>
+  </si>
+  <si>
+    <t>Routers  Fin-CORE1</t>
+  </si>
+  <si>
+    <t>Routers  TI-CORE1</t>
+  </si>
+  <si>
+    <t>Routers  RH-CORE1</t>
+  </si>
+  <si>
+    <t>Routers  Gen-CORE1</t>
+  </si>
+  <si>
+    <t>Routers  Adm-CORE1</t>
+  </si>
+  <si>
+    <t>Routers  SC-CORE2</t>
+  </si>
+  <si>
+    <t>Routers  Fin-CORE2</t>
+  </si>
+  <si>
+    <t>Routers  TI-CORE2</t>
+  </si>
+  <si>
+    <t>Routers  RH-CORE2</t>
+  </si>
+  <si>
+    <t>Routers  Gen-CORE2</t>
+  </si>
+  <si>
+    <t>Routers  Adm-CORE2</t>
+  </si>
+  <si>
+    <t>192.168.3.4</t>
+  </si>
+  <si>
+    <t>192.168.3.7</t>
+  </si>
+  <si>
+    <t>192.168.3.10</t>
+  </si>
+  <si>
+    <t>192.168.3.11</t>
+  </si>
+  <si>
+    <t>192.168.3.8</t>
+  </si>
+  <si>
+    <t>192.168.3.12</t>
+  </si>
+  <si>
+    <t>192.168.3.15</t>
+  </si>
+  <si>
+    <t>192.168.3.16</t>
+  </si>
+  <si>
+    <t>192.168.3.19</t>
+  </si>
+  <si>
+    <t>192.168.3.20</t>
+  </si>
+  <si>
+    <t>192.168.3.23</t>
+  </si>
+  <si>
+    <t>192.168.3.24</t>
+  </si>
+  <si>
+    <t>192.168.3.27</t>
+  </si>
+  <si>
+    <t>192.168.3.28</t>
+  </si>
+  <si>
+    <t>192.168.3.31</t>
+  </si>
+  <si>
+    <t>192.168.3.32</t>
+  </si>
+  <si>
+    <t>192.168.3.35</t>
+  </si>
+  <si>
+    <t>192.168.3.36</t>
+  </si>
+  <si>
+    <t>192.168.3.37</t>
+  </si>
+  <si>
+    <t>192.168.3.38</t>
+  </si>
+  <si>
+    <t>192.168.3.39</t>
+  </si>
+  <si>
+    <t>192.168.3.40</t>
+  </si>
+  <si>
+    <t>192.168.3.43</t>
+  </si>
+  <si>
+    <t>192.168.3.44</t>
+  </si>
+  <si>
+    <t>192.168.3.47</t>
+  </si>
+  <si>
+    <t>192.168.3.48</t>
+  </si>
+  <si>
+    <t>192.168.3.51</t>
+  </si>
+  <si>
+    <t>192.168.3.5</t>
+  </si>
+  <si>
+    <t>192.168.3.9</t>
+  </si>
+  <si>
+    <t>192.168.3.13</t>
+  </si>
+  <si>
+    <t>192.168.3.17</t>
+  </si>
+  <si>
+    <t>192.168.3.21</t>
+  </si>
+  <si>
+    <t>192.168.3.25</t>
+  </si>
+  <si>
+    <t>192.168.3.29</t>
+  </si>
+  <si>
+    <t>192.168.3.33</t>
+  </si>
+  <si>
+    <t>192.168.3.41</t>
+  </si>
+  <si>
+    <t>192.168.3.45</t>
+  </si>
+  <si>
+    <t>192.168.3.49</t>
+  </si>
+  <si>
+    <t>192.168.3.6</t>
+  </si>
+  <si>
+    <t>192.168.3.14</t>
+  </si>
+  <si>
+    <t>192.168.3.18</t>
+  </si>
+  <si>
+    <t>192.168.3.26</t>
+  </si>
+  <si>
+    <t>192.168.3.30</t>
+  </si>
+  <si>
+    <t>192.168.3.34</t>
+  </si>
+  <si>
+    <t>192.168.3.42</t>
+  </si>
+  <si>
+    <t>192.168.3.46</t>
+  </si>
+  <si>
+    <t>192.168.3.50</t>
+  </si>
+  <si>
+    <t>Routers  SC-Fin</t>
+  </si>
+  <si>
+    <t>Routers  Fin-TI</t>
+  </si>
+  <si>
+    <t>Routers  TI-RH</t>
+  </si>
+  <si>
+    <t>Routers  RH-Gen</t>
+  </si>
+  <si>
+    <t>Routers  Gen-Adm</t>
+  </si>
+  <si>
+    <t>192.168.3.52</t>
+  </si>
+  <si>
+    <t>192.168.3.53</t>
+  </si>
+  <si>
+    <t>192.168.3.54</t>
+  </si>
+  <si>
+    <t>192.168.3.55</t>
+  </si>
+  <si>
+    <t>192.168.3.56</t>
+  </si>
+  <si>
+    <t>192.168.3.57</t>
+  </si>
+  <si>
+    <t>192.168.3.58</t>
+  </si>
+  <si>
+    <t>192.168.3.59</t>
+  </si>
+  <si>
+    <t>192.168.3.60</t>
+  </si>
+  <si>
+    <t>192.168.3.61</t>
+  </si>
+  <si>
+    <t>192.168.3.62</t>
+  </si>
+  <si>
+    <t>192.168.3.63</t>
+  </si>
+  <si>
+    <t>192.168.3.64</t>
+  </si>
+  <si>
+    <t>192.168.3.65</t>
+  </si>
+  <si>
+    <t>192.168.3.66</t>
+  </si>
+  <si>
+    <t>192.168.3.67</t>
+  </si>
+  <si>
+    <t>192.168.3.68</t>
+  </si>
+  <si>
+    <t>192.168.3.69</t>
+  </si>
+  <si>
+    <t>192.168.3.70</t>
+  </si>
+  <si>
+    <t>192.168.3.71</t>
+  </si>
+  <si>
+    <t>Hosts Req. (Permitidos)</t>
   </si>
 </sst>
 </file>
@@ -388,7 +805,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$₡-140A]* #,##0.00_-;\-[$₡-140A]* #,##0.00_-;_-[$₡-140A]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +838,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -514,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -565,6 +988,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -592,19 +1025,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -893,7 +1322,7 @@
   <dimension ref="C1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="H4" sqref="H4:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -935,7 +1364,7 @@
       <c r="H3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="28"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C4" s="12" t="s">
@@ -997,11 +1426,11 @@
         <v>1</v>
       </c>
       <c r="F6" s="12">
-        <f t="shared" ref="F5:G9" si="2">D6+E6</f>
+        <f t="shared" ref="F6:F9" si="2">D6+E6</f>
         <v>16</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ref="G5:G9" si="3">ROUND(2.2*D6,0)</f>
+        <f t="shared" ref="G6:G9" si="3">ROUND(2.2*D6,0)</f>
         <v>33</v>
       </c>
       <c r="H6" s="12">
@@ -1082,26 +1511,26 @@
       </c>
     </row>
     <row r="10" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="19">
         <f>SUM(D4:D9)</f>
         <v>185</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="19">
         <f>SUM(E4:E9)</f>
         <v>11</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="19">
         <f>SUM(F4:F9)</f>
         <v>196</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="19">
         <f>SUM(G4:G9)</f>
         <v>362</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="19">
         <f>SUM(H4:H9)</f>
         <v>558</v>
       </c>
@@ -1133,7 +1562,7 @@
       <c r="E13" s="12">
         <v>1</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="20">
         <f>D13/48</f>
         <v>1.3125</v>
       </c>
@@ -1151,7 +1580,7 @@
       <c r="E14" s="12">
         <v>1</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="20">
         <f t="shared" ref="F14:F18" si="4">D14/48</f>
         <v>1.1041666666666667</v>
       </c>
@@ -1169,7 +1598,7 @@
       <c r="E15" s="12">
         <v>1</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="20">
         <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
@@ -1187,7 +1616,7 @@
       <c r="E16" s="12">
         <v>1</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="20">
         <f t="shared" si="4"/>
         <v>0.4375</v>
       </c>
@@ -1205,7 +1634,7 @@
       <c r="E17" s="12">
         <v>1</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="20">
         <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
@@ -1223,7 +1652,7 @@
       <c r="E18" s="12">
         <v>1</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="20">
         <f t="shared" si="4"/>
         <v>0.22916666666666666</v>
       </c>
@@ -1241,22 +1670,22 @@
       <c r="E19" s="12">
         <v>6</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="20">
         <f>ROUND(SUM(F13:F18),0)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="31"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
         <v>6</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="21"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C13:F18">
@@ -1275,7 +1704,7 @@
   <dimension ref="B2:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1309,14 +1738,14 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -1481,14 +1910,14 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
@@ -1596,20 +2025,20 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="4">
         <v>1</v>
       </c>
@@ -1625,10 +2054,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="4">
         <v>1</v>
       </c>
@@ -1644,12 +2073,12 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="10">
         <f>SUM(F4:F9,F11:F15,F17:F18)</f>
         <v>69569.45</v>
@@ -1780,7 +2209,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -1794,7 +2223,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="25"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="12" t="s">
         <v>61</v>
       </c>
@@ -1806,7 +2235,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="12" t="s">
         <v>62</v>
       </c>
@@ -1818,7 +2247,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1832,7 +2261,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="26"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="12" t="s">
         <v>64</v>
       </c>
@@ -1844,7 +2273,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="30" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -1858,7 +2287,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="26"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="12" t="s">
         <v>66</v>
       </c>
@@ -1870,7 +2299,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="26"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="3" t="s">
         <v>67</v>
       </c>
@@ -1882,7 +2311,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="30" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -1896,7 +2325,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="26"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="3" t="s">
         <v>69</v>
       </c>
@@ -1908,7 +2337,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="26"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
@@ -1920,7 +2349,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="30" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1934,7 +2363,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="12" t="s">
         <v>72</v>
       </c>
@@ -1946,7 +2375,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="12" t="s">
         <v>73</v>
       </c>
@@ -1958,7 +2387,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="30" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -1972,7 +2401,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="26"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="12" t="s">
         <v>75</v>
       </c>
@@ -1984,14 +2413,14 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2010,14 +2439,687 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B032376-2841-4EF2-BC59-BD73350CF7C1}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A8" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:I10">
+    <sortCondition descending="1" ref="C5:C10"/>
+  </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Proyecto Redes 2/AnalisisSistemaRed.xlsx
+++ b/Proyecto Redes 2/AnalisisSistemaRed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/916453d256f63eb8/Documentos/GitHub/CursosRedes/Proyecto Redes 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1112" documentId="11_AD4D2F04E46CFB4ACB3E20CB0D92F634683EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8268B346-BE39-43E4-BE5B-7E05690A2A3D}"/>
+  <xr:revisionPtr revIDLastSave="1116" documentId="11_AD4D2F04E46CFB4ACB3E20CB0D92F634683EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D8E9E2F-853E-4418-8E88-6C8D606C36F8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30675" yWindow="1875" windowWidth="28800" windowHeight="15285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dispositivos Necesarios" sheetId="1" r:id="rId1"/>
@@ -937,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -995,6 +995,14 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1025,15 +1033,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1321,7 +1320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4:H9"/>
     </sheetView>
   </sheetViews>
@@ -1677,15 +1676,15 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25">
         <v>6</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C13:F18">
@@ -1703,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EF6F0D-2255-4E4A-984B-81F981B54FDE}">
   <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1738,14 +1737,14 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -1831,19 +1830,19 @@
         <v>28</v>
       </c>
       <c r="J6">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="K6">
         <f>J6*50</f>
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="L6">
         <f>J6*10</f>
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M6">
         <f>SUM(K6:L6)</f>
-        <v>30000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1910,16 +1909,16 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="2:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
@@ -2025,20 +2024,20 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="4">
         <v>1</v>
       </c>
@@ -2054,10 +2053,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="4">
         <v>1</v>
       </c>
@@ -2073,12 +2072,12 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="10">
         <f>SUM(F4:F9,F11:F15,F17:F18)</f>
         <v>69569.45</v>
@@ -2209,7 +2208,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="33" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -2223,7 +2222,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="12" t="s">
         <v>61</v>
       </c>
@@ -2235,7 +2234,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="12" t="s">
         <v>62</v>
       </c>
@@ -2247,7 +2246,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="34" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -2261,7 +2260,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="30"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="12" t="s">
         <v>64</v>
       </c>
@@ -2273,7 +2272,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="34" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -2287,7 +2286,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="12" t="s">
         <v>66</v>
       </c>
@@ -2299,7 +2298,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="3" t="s">
         <v>67</v>
       </c>
@@ -2311,7 +2310,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -2325,7 +2324,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="3" t="s">
         <v>69</v>
       </c>
@@ -2337,7 +2336,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
@@ -2349,7 +2348,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="34" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -2363,7 +2362,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="12" t="s">
         <v>72</v>
       </c>
@@ -2375,7 +2374,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="12" t="s">
         <v>73</v>
       </c>
@@ -2387,7 +2386,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -2401,7 +2400,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="12" t="s">
         <v>75</v>
       </c>
@@ -2413,14 +2412,14 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2455,39 +2454,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="22" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2498,22 +2497,22 @@
       <c r="C5" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="24" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2524,22 +2523,22 @@
       <c r="C6" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="24" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2550,22 +2549,22 @@
       <c r="C7" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="24" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2576,22 +2575,22 @@
       <c r="C8" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="24" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2602,22 +2601,22 @@
       <c r="C9" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="24" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2628,22 +2627,22 @@
       <c r="C10" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="24" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2654,22 +2653,22 @@
       <c r="C11" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="24" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2680,22 +2679,22 @@
       <c r="C12" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="24" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2706,22 +2705,22 @@
       <c r="C13" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="24" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2732,22 +2731,22 @@
       <c r="C14" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="24" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2758,22 +2757,22 @@
       <c r="C15" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="24" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2784,22 +2783,22 @@
       <c r="C16" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="24" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2810,22 +2809,22 @@
       <c r="C17" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="24" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2836,22 +2835,22 @@
       <c r="C18" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="24" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2862,22 +2861,22 @@
       <c r="C19" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="24" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2888,22 +2887,22 @@
       <c r="C20" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="24" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2914,22 +2913,22 @@
       <c r="C21" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="24" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2940,22 +2939,22 @@
       <c r="C22" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="24" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2966,22 +2965,22 @@
       <c r="C23" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="24" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2992,22 +2991,22 @@
       <c r="C24" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="24" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3018,22 +3017,22 @@
       <c r="C25" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="24" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3044,22 +3043,22 @@
       <c r="C26" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="24" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3070,22 +3069,22 @@
       <c r="C27" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="24" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3096,22 +3095,22 @@
       <c r="C28" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="H28" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="24" t="s">
         <v>250</v>
       </c>
     </row>
